--- a/public/uploads/exports/customer_list.xlsx
+++ b/public/uploads/exports/customer_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>7506973609</t>
   </si>
   <si>
     <t>0</t>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -456,14 +459,17 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -471,27 +477,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
